--- a/CUMCM2022支撑材料/excel/result/2/analysis.xlsx
+++ b/CUMCM2022支撑材料/excel/result/2/analysis.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1163607495516648</v>
+        <v>0.09499989456779534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03250492145759733</v>
+        <v>0.0260361324212142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1325019549182105</v>
+        <v>0.0972006418756189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01685458903131983</v>
+        <v>0.009525477679512078</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8496871581466495</v>
+        <v>0.8955146607083222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0683622696205383</v>
+        <v>0.05865496379425121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8481312697886512</v>
+        <v>0.8949088095456329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05396633697002991</v>
+        <v>0.05049531938680821</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007686549825300574</v>
+        <v>0.0007780084646388639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0149095535384746</v>
+        <v>0.006884845486764808</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02678613990459418</v>
+        <v>0.005086879951720014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003548247277759361</v>
+        <v>0.000737182423160056</v>
       </c>
     </row>
     <row r="5">

--- a/CUMCM2022支撑材料/excel/result/2/analysis.xlsx
+++ b/CUMCM2022支撑材料/excel/result/2/analysis.xlsx
@@ -463,13 +463,13 @@
         <v>0.09499989456779534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0260361324212142</v>
+        <v>0.02561204685473251</v>
       </c>
       <c r="D2" t="n">
         <v>0.0972006418756189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009525477679512078</v>
+        <v>0.007993279127494285</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>0.8955146607083222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05865496379425121</v>
+        <v>0.07569057293472016</v>
       </c>
       <c r="D3" t="n">
         <v>0.8949088095456329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05049531938680821</v>
+        <v>0.06053175447735762</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>0.0007780084646388639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006884845486764808</v>
+        <v>0.006436141969703236</v>
       </c>
       <c r="D4" t="n">
         <v>0.005086879951720014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000737182423160056</v>
+        <v>0.0007605883768109706</v>
       </c>
     </row>
     <row r="5">
